--- a/MOSFERATWO Analysis.xlsx
+++ b/MOSFERATWO Analysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\13 DEC 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5E3DBD-18A9-4F84-A680-E087674911C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25178894-A8FD-43B2-A9B1-DC44934D7F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B210B7F0-CE78-4AA6-9355-E46871613446}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B210B7F0-CE78-4AA6-9355-E46871613446}"/>
   </bookViews>
   <sheets>
     <sheet name="DRIVE" sheetId="1" r:id="rId1"/>
+    <sheet name="Focus Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1016,7 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2895609F-5117-4B19-B357-B6E4214D35FC}">
   <dimension ref="A1:ER101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="DV80" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -46097,4 +46098,145 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E2C35C-AC43-4AC2-B953-54D0A9A66F2C}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="str">
+        <f>"            0: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 0%])&amp;"],"</f>
+        <v xml:space="preserve">            0: [0.755963994404059, 0.8658549559027, 0.988625720378241, 1.12507600532109, 1.27591567325292, 1.44174100205201, 1.62301563414315, 1.82006038564121, 2.03305617464338, 2.26206554003146, 2.50707870085649, 2.76808913931422, 3.04520415056052, 3.33879469891026, 3.64968734428391, 3.9794028040257, 4.33043027430328, 4.70653856770203, 5.11308206557485, 5.55722449757407, 6.04790516055266, 6.59511909462037, 7.20765993731308, 7.88761342344551, 8.61945864213564, 9.35179616138836, 9.98005123441133, 10.3563272896286, 10.3570578873178, 9.97353556910021, 9.3242840157558, 8.56592078753319, 7.81563441742197, 7.1332812784539, 6.53795580088761, 6.02799415374157, 5.59361432987804, 5.2231916001226, 4.90585982827112, 4.63228697168404, 4.39499251655296, 4.18811641506063, 4.00694431070204, 3.84778109466834, 3.70790212273848, 3.5854115607397, 3.47922132910093, 3.38882770132017, 3.31494718042696, 3.25966239721619, 3.22652477023106, 3.22182157962239, 3.25388753255841, 3.33261499495082, 3.46152862425196, 3.61934732223508, 3.73280340947896, 3.69944713044782, 3.49230408840875, 3.19078352568615, 2.88366453630889, 2.61055641664629, 2.37739534274409, 2.17817418571028, 2.00500893942563, 1.85155779025106, 1.71321307228882, 1.58662679004633, 1.46947336112007, 1.36028391627172, 1.25795366027235, 1.16162311737626, 1.07071010849471, 0.984872074181312, 0.903775331989162, 0.827146784580537, 0.754791567673593, 0.686551007057967, 0.622343756343541, 0.562023122394937, 0.505530457159106, 0.452800198123845, 0.403787273842673, 0.358362437693144, 0.31651027944489, 0.2781488549579, 0.243176950928011, 0.211497056316324, 0.182970781018508, 0.157460691189802, 0.134803283095411, 0.114810159465955, 0.0972971432847081, 0.0820549810251794, 0.0688812482017268, 0.0575690202687936, 0.0479163387171217, 0.0397253226085144, 0.0328190234767378, 0.0270250244157351],</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f>"            5: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 5%])&amp;"],"</f>
+        <v xml:space="preserve">            5: [0.754441138281979, 0.863409855829883, 0.984950019161079, 1.11979145047843, 1.26856632120468, 1.43178690061104, 1.60982873482993, 1.80292338151226, 2.01116476734366, 2.23453429397382, 2.47295013324675, 2.72634506826256, 2.99477762659355, 3.27858016087256, 3.57854608724035, 3.89616041318657, 4.23386281693732, 4.59534451835151, 4.98583842295429, 5.41232847216601, 5.88350907015036, 6.4090806776403, 6.99755972744023, 7.65095017174379, 8.35421318551852, 9.05763212090848, 9.66016336730343, 10.0190572754615, 10.0152768472363, 9.6408497121388, 9.01059378840091, 8.27588122829636, 7.5498110439132, 6.89003210516074, 6.31482529195592, 5.82245260560358, 5.40336753658478, 5.04626953911847, 4.74060905925114, 4.47733063588362, 4.24917557234852, 4.05045634136192, 3.87659634901506, 3.72400705724451, 3.59004087333352, 3.47285459677912, 3.37138980806673, 3.28515726597868, 3.21485417098015, 3.16250750156832, 3.13157550770328, 3.12817965947003, 3.16043946973355, 3.23799824191172, 3.36432060163067, 3.51875547894629, 3.63006903331042, 3.59856558149956, 3.39789417884304, 3.10522689526728, 2.80693718642272, 2.54160230964511, 2.31503713365474, 2.12142467033248, 1.95311200898115, 1.80394087604406, 1.66943675240728, 1.54634836440098, 1.43241774369933, 1.32621970777343, 1.22668231758146, 1.13297145266556, 1.04452228633453, 0.961002842060514, 0.882089097735216, 0.80751552430366, 0.737092442215588, 0.6706651142404, 0.608154063916671, 0.549415811310405, 0.494392846238313, 0.443020982403266, 0.395256267338439, 0.350972619507422, 0.310155728439653, 0.272726580728201, 0.238587702510961, 0.207645682322772, 0.179767391292003, 0.154820959131324, 0.132649148445135, 0.113070362609081, 0.0959071779009646, 0.0809573887212309, 0.0680253311134836, 0.0569106416922758, 0.0474175301699559, 0.0393538516365605, 0.0325477712631845, 0.0268315244403371],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f>"            10: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 10%])&amp;"],"</f>
+        <v xml:space="preserve">            10: [0.752382810177505, 0.86020419638805, 0.980227171026447, 1.11310159478368, 1.25937207791487, 1.41945781196994, 1.59363864985955, 1.78205142744578, 1.98470031474004, 2.20148586572724, 2.43225759897305, 2.67689376671291, 2.93541232037219, 3.20811606779574, 3.49577373976929, 3.79984077326267, 4.12270936578495, 4.46798934554319, 4.84078105881921, 5.24786944979877, 5.69767709860197, 6.19957836600851, 6.76178516571701, 7.38621687650053, 8.05837735776378, 8.73042000865167, 9.30520272772594, 9.64563368450191, 9.63761378469917, 9.27390165023354, 8.66516715885586, 7.95697853439028, 7.25793794446742, 6.62328512373909, 6.07042831345891, 5.5975670733855, 5.19542860160632, 4.85307967006443, 4.56032670082078, 4.30842407842467, 4.09036132331237, 3.90064398993084, 3.73484967758281, 3.58950933658497, 3.46206222351898, 3.35072509297562, 3.25447431393662, 3.17283886739601, 3.10649757042031, 3.05741985024244, 3.02896623430478, 3.02708271176512, 3.05966127760495, 3.13608309870412, 3.25975663717445, 3.4107179976461, 3.51992323736312, 3.49062183309433, 3.29710533327794, 3.01412798670527, 2.72548419243768, 2.46865299889945, 2.24932642917136, 2.06189556598538, 1.89895710335907, 1.75455012421316, 1.62434268217249, 1.50518638391957, 1.39489451996547, 1.29208741252056, 1.1957265968565, 1.10500290926026, 1.01936765717467, 0.938497692017693, 0.862076335959204, 0.789842844350449, 0.721609652374122, 0.657222699762151, 0.596601292693841, 0.539601935350632, 0.486165691326253, 0.436227761442556, 0.389744297456624, 0.3465917756449, 0.306758436479222, 0.270170532732714, 0.236737849237437, 0.206375959793395, 0.178962581449802, 0.154377899936465, 0.13247768133939, 0.11309370408016, 0.0960617500253285, 0.0811921935161189, 0.0683009347320463, 0.0571978555777471, 0.0476959250231818, 0.0396101854940921, 0.0327745432952363, 0.0270255313510929],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f>"            15: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 15%])&amp;"],"</f>
+        <v xml:space="preserve">            15: [0.749174203982692, 0.855357652286708, 0.973237960893422, 1.10336252998627, 1.24616598616859, 1.40195326239399, 1.57088986041511, 1.75300302115878, 1.94819713545139, 2.15628741787985, 2.37705588134534, 2.61033242800084, 2.85610425650167, 3.11465591958874, 3.38674134997399, 3.67379145373801, 3.97814738553811, 4.30332151844358, 4.65424950757045, 5.03746663004481, 5.46105465454043, 5.93398123163218, 6.46408226960304, 7.05318014398907, 7.68746612735351, 8.32142868985533, 8.86276540607533, 9.1813616441393, 9.16914938437429, 8.81967984611395, 8.2384029873383, 7.56367721797611, 6.89855835733727, 6.29534079116533, 5.77038782386441, 5.32184934149396, 4.94081124914226, 4.6168089135609, 4.34009912081663, 4.10232669132286, 3.89679359903051, 3.71824858495021, 3.56246357505182, 3.42612053891541, 3.30676933408731, 3.20270419475103, 3.11294822200018, 3.03705704624935, 2.97569209108914, 2.93075871172153, 2.90550608414922, 2.90567723969014, 2.93890200663329, 3.01426275398541, 3.13512135414634, 3.28235610320749, 3.3895381774669, 3.36338357207685, 3.17887831776159, 2.90786524944205, 2.63108525085802, 2.38473727143172, 2.17438501184289, 1.99467525474227, 1.83850342117218, 1.70014210987183, 1.5754259456061, 1.46132433425886, 1.35572972976159, 1.2573107212541, 1.16506175493056, 1.07819536326729, 0.996173667741726, 0.918675853867418, 0.845385207573599, 0.776038017220028, 0.710441468174564, 0.648435807858719, 0.589934853241213, 0.534792684936074, 0.482950169010749, 0.434346643698031, 0.388947172782793, 0.346642389395835, 0.307439384888358, 0.271287850228266, 0.238124293952972, 0.207893078398711, 0.18050101457363, 0.155856413185007, 0.13384067302018, 0.114307653691487, 0.0971113388249898, 0.08207590905928, 0.0690271560678057, 0.0577812353818964, 0.0481544564868189, 0.0399629136293135, 0.0330400638024125, 0.0272208920371926],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f>"            20: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 20%])&amp;"],"</f>
+        <v xml:space="preserve">            20: [0.743904352705304, 0.847651890848402, 0.962389636407108, 1.08853416998712, 1.22638374205419, 1.37610636354696, 1.53773598651931, 1.71117999688871, 1.89624064698324, 2.09265356735631, 2.30014642274849, 2.51851961856373, 2.74775147442811, 2.988129683597, 3.24041018919774, 3.50600708543532, 3.78720456511742, 4.08739355855403, 4.41129921524955, 4.76513731652946, 5.15655631275528, 5.59401162813448, 6.08487216773904, 6.63085131704963, 7.21901954425037, 7.80680096431988, 8.30792878868458, 8.60092754856285, 8.58510910370616, 8.25484304508841, 7.70896058560364, 7.0768164172793, 6.45459961188569, 5.89099748458749, 5.4011271964313, 4.98311860725523, 4.62853379475515, 4.32751192975609, 4.07088465752504, 3.85079293323513, 3.66093543443986, 3.49637004771755, 3.35311612249605, 3.22804880612759, 3.11886101757998, 3.02394932420046, 2.94240179250155, 2.87381499698219, 2.8188390023755, 2.77931332910759, 2.75836746976143, 2.76152011100021, 2.79611395279081, 2.87091198157748, 2.98926703112483, 3.13309420088748, 3.2390332018529, 3.21775183757312, 3.04488193308248, 2.78878997622098, 2.52668919795938, 2.29334422723291, 2.09420648694815, 1.92423532017436, 1.7766738086231, 1.64605890609368, 1.52840739484759, 1.42081065362855, 1.32123630844724, 1.22839235985564, 1.14129394384888, 1.05916105474911, 0.981452586552506, 0.907838422287617, 0.837992779185176, 0.771644428374108, 0.708596991984815, 0.648693743041604, 0.591859995983825, 0.537970737900191, 0.486997556375304, 0.438919587482788, 0.393749316415525, 0.351428775936339, 0.312019901088506, 0.275525575765694, 0.241931466687182, 0.211225156510788, 0.183348551981987, 0.158236946468564, 0.135790343684911, 0.115873668930011, 0.0983460659899427, 0.0830319515660896, 0.0697542323927375, 0.0583241152038226, 0.0485519869364357, 0.0402477634540575, 0.033239078514728, 0.0273555991969538],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f>"            25: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 25%])&amp;"],"</f>
+        <v xml:space="preserve">            25: [0.735309444688135, 0.835501188488107, 0.945732340603178, 1.06626631624035, 1.1972486292487, 1.33870188745229, 1.49052932498404, 1.65252930316219, 1.8244224789886, 2.00589377957792, 2.19665129187568, 2.39650323621453, 2.60545493819015, 2.82382743932436, 3.05239903011645, 3.29257355600472, 3.54656771197174, 3.81762061890164, 4.11019497412076, 4.43011344460483, 4.78449911216458, 5.18119552941227, 5.62702424162699, 6.12358821432925, 6.65902621672281, 7.19425604981609, 7.65012436722981, 7.91525054899597, 7.89744825655978, 7.59181920781085, 7.0892490167231, 6.5084697724719, 5.9376511108957, 5.42132265786393, 4.97321239836871, 4.59148450776503, 4.26830181936535, 3.99454169068701, 3.76173139615518, 3.56260942649769, 3.39135205473204, 3.24339022738004, 3.11504276221185, 3.00342027276313, 2.90639276680402, 2.82248701026314, 2.75087897299673, 2.69122665436531, 2.64418436839545, 2.61153812462452, 2.59630938615797, 2.60380217333682, 2.64109020905682, 2.71665349669551, 2.83392109315423, 2.97600679173139, 3.08282407397353, 3.06903111908266, 2.91061242961633, 2.67209498394383, 2.42702283323254, 2.20875231619948, 2.02268150895444, 1.86412022674932, 1.72667044730751, 1.6051273408185, 1.49567350199774, 1.39549990527338, 1.30262584072337, 1.21577923628406, 1.13398068998302, 1.05644899355538, 0.982641430787741, 0.91223271436261, 0.844912552700084, 0.780437884336891, 0.718654734404429, 0.659462638811713, 0.602856148886192, 0.548787228818644, 0.497310793661992, 0.448489782587346, 0.402417122118185, 0.359105889944528, 0.318681087924289, 0.281195132188373, 0.24667024151909, 0.215118643035793, 0.186495543004473, 0.16074093935331, 0.137752574871528, 0.117388296628088, 0.0994975867359798, 0.083893666524747, 0.0703882034510802, 0.0587816873976234, 0.048874832771094, 0.0404691158546714, 0.0333850960214013, 0.0274465521928807],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f>"            30: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 30%])&amp;"],"</f>
+        <v xml:space="preserve">            30: [0.720024650733016, 0.814655401654852, 0.918000623372727, 1.03015371627865, 1.15110280626622, 1.28073423162758, 1.41884384110738, 1.56515751208772, 1.71936161595387, 1.88114471080235, 2.0502519373869, 2.22655300077806, 2.41012561508469, 2.6013562784183, 2.80106010374069, 3.01062385641938, 3.23216576805548, 3.46871585814068, 3.72438963265119, 4.00450530812034, 4.315527834618, 4.66455023522133, 5.05773974393839, 5.49659636761906, 5.97060265984735, 6.44495708368888, 6.84911820194756, 7.08380089067419, 7.0668325917426, 6.79387637283979, 6.34600301127165, 5.82907898000892, 5.32167632870824, 4.8634267695487, 4.4664896426191, 4.129152078371, 3.84435932283709, 3.60391929746072, 3.40022675643583, 3.22676184852582, 3.07829393522591, 2.95071911229125, 2.84073145387393, 2.74573960836589, 2.66384227566748, 2.59374005431044, 2.53473439603931, 2.4865796653127, 2.44996460521436, 2.42665040238949, 2.41958267639087, 2.433888780656, 2.47643326610911, 2.55550978676949, 2.67478009031655, 2.81874855114223, 2.9306622583641, 2.92881430073814, 2.78889451528386, 2.57124195927676, 2.34581653696731, 2.14475685070469, 1.97352622332798, 1.82782359657871, 1.70160077075729, 1.58988584415762, 1.48900073859179, 1.39621527508048, 1.30959288114096, 1.22789325751417, 1.15017063228, 1.07568698967448, 1.00395914350986, 0.934741565126735, 0.867819699058431, 0.803060107411576, 0.740428725353188, 0.679949057558986, 0.621739297740661, 0.565865087401478, 0.512485177940151, 0.461750446248072, 0.413824894821381, 0.368772575382815, 0.326755940776141, 0.287848071143072, 0.252079029268403, 0.219459359601862, 0.189934784653553, 0.163431411619848, 0.139830200531788, 0.118971063014053, 0.100686029036479, 0.0847717118053896, 0.0710249053985837, 0.0592330020454215, 0.0491855147282947, 0.0406745084005054, 0.0335128431523435, 0.0275180015236805],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f>"            35: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 35%])&amp;"],"</f>
+        <v xml:space="preserve">            35: [0.69650587062032, 0.783737223377889, 0.878178178690286, 0.979791044390539, 1.08845874095358, 1.20399450358427, 1.32615729820149, 1.45467366712111, 1.58926628924724, 1.72969029899999, 1.8757788188152, 2.02749880427551, 2.18501934697116, 2.34879461117693, 2.51966344760916, 2.69896984838724, 2.88869888620638, 3.09163190280319, 3.31149724952712, 3.55307313075398, 3.82214038705557, 4.1250311291302, 4.46727056677754, 4.85029857957077, 5.26501921536117, 5.68101565274718, 6.03644352515672, 6.24408840409971, 6.23157620829234, 5.99477798619386, 5.60464542528282, 5.15405779507128, 4.7120261084242, 4.3133897055712, 3.96884971144959, 3.67690678766499, 3.43135631807298, 3.22498616739144, 3.05109515738164, 2.90393329408511, 2.77888674363953, 2.67233827420491, 2.58137730726219, 2.5037303241838, 2.43774537865607, 2.38231904794977, 2.33690295533227, 2.30137513920812, 2.2764938272896, 2.26404246110333, 2.26695533344834, 2.29028154535224, 2.34081468690674, 2.42684651073878, 2.55242753618334, 2.70333864819392, 2.8253086566275, 2.83870698189784, 2.71802317055822, 2.52003542026305, 2.31223704804816, 2.12617890465815, 1.96756599434977, 1.83246386031831, 1.71510231858257, 1.6106883557417, 1.51566071373875, 1.42737515694841, 1.3439746177396, 1.26431038607294, 1.18754175590814, 1.1130499481504, 1.04048668259752, 0.969754110651691, 0.90078577193511, 0.833592773204654, 0.768277625424162, 0.704986655320248, 0.64394554633677, 0.585305275729624, 0.52929309396042, 0.476109005979063, 0.425949515521856, 0.378893855181855, 0.335111023697447, 0.29466923310528, 0.257586439349877, 0.223856684184144, 0.193405724636989, 0.166138756549635, 0.141915514728631, 0.120555347688863, 0.101871404002247, 0.0856429944194102, 0.0716517579533484, 0.0596719107325204, 0.0494817639838591, 0.0408639839628938, 0.0336237226581289, 0.0275721342834352],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f>"            40: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 40%])&amp;"],"</f>
+        <v xml:space="preserve">            40: [0.665090311318017, 0.743846843434203, 0.828396234115576, 0.918639498885838, 1.0144275345589, 1.11557230559316, 1.22186150055764, 1.33307728466683, 1.44901954514332, 1.56953484867702, 1.69455276476764, 1.82413089161715, 1.95851083630552, 2.09818736379231, 2.24399275142652, 2.39720021843709, 2.55964185469887, 2.73384462689832, 2.9231638678345, 3.13187656686473, 3.36514542331076, 3.62863135882403, 3.9273138698041, 4.26262833631923, 4.62681433995364, 4.99343232000065, 5.30840868169464, 5.49518141913784, 5.48984700829363, 5.28814292269895, 4.95180099039424, 4.56210859590477, 4.17965548182742, 3.83513730076928, 3.5380636813523, 3.2872044694951, 3.07716729522869, 2.90165138570988, 2.75478913720681, 2.63153855809979, 2.52785495212621, 2.44057343389804, 2.36715362301527, 2.30562301228834, 2.25457028014582, 2.21308592539682, 2.18077629221736, 2.15765185554284, 2.14456153791646, 2.14334805338368, 2.15699077348385, 2.1905563911708, 2.25089862096935, 2.34647008218706, 2.48178650353098, 2.64359100599682, 2.77889904055718, 2.80835489662664, 2.7045668475325, 2.52189180482251, 2.32680630986668, 2.15098647820609, 2.0005435148262, 1.87187151094253, 1.75940946920481, 1.65850466134098, 1.56570777661766, 1.4784793103391, 1.39507576023079, 1.31448065725388, 1.23599392809222, 1.15914147152131, 1.08372298448252, 1.00978749977238, 0.937401475852406, 0.866694070892036, 0.797869909175272, 0.731159126626726, 0.666854821961739, 0.605154851907237, 0.546320483944219, 0.490571479543011, 0.438113123973879, 0.389021639289578, 0.343459370423599, 0.301480626021303, 0.263085501047144, 0.228248197794065, 0.196872836959819, 0.16884309035809, 0.143997460496866, 0.122135016795305, 0.103050400904632, 0.0865059737646796, 0.0722684954531084, 0.0600991912410712, 0.0497652709474992, 0.0410400353434257, 0.0337209093699371, 0.0276126711354284],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <f>"            45: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 45%])&amp;"],"</f>
+        <v xml:space="preserve">            45: [0.625821815338386, 0.695554282937072, 0.769878009717394, 0.848690819602834, 0.931863582938986, 1.01924950238601, 1.11069551143855, 1.20605657791346, 1.30521353331755, 1.40809577419968, 1.51471052369781, 1.62518000351736, 1.73978862984355, 1.85904226896631, 1.98374141995802, 2.11507181252667, 2.25470852887503, 2.40493703179766, 2.56877336523732, 2.75005101059409, 2.95339698192911, 3.18390277540559, 3.44610342517048, 3.74147949027155, 4.06349878081951, 4.38925121667911, 4.67145435850922, 4.84274000822373, 4.84636127995543, 4.67766426711784, 4.39017128764905, 4.05505075825928, 3.72563714035374, 3.42912274255229, 3.17407083215343, 2.95955375105438, 2.78093504238232, 2.63274286591876, 2.50986266416684, 2.4078912744637, 2.32329972718565, 2.25333607885544, 2.1957999861937, 2.14899764613293, 2.11174320353883, 2.08331134257161, 2.06345845914844, 2.0523253900298, 2.05085968270524, 2.06098390455551, 2.08575832953418, 2.13033531202506, 2.20172294194345, 2.30864908889038, 2.45612312058634, 2.63153579337348, 2.78214661288818, 2.82740584652194, 2.73761069864689, 2.56577767983309, 2.37862020041584, 2.20853235176791, 2.06216334811603, 1.93620518164669, 1.82525214148221, 1.72475898639133, 1.63137613228787, 1.54266780557765, 1.45700756473665, 1.37351369122801, 1.29162217530566, 1.21099096351104, 1.1315480659027, 1.05346403007785, 0.9769084934494, 0.902097419206736, 0.829307088475897, 0.758823416911621, 0.69098259890818, 0.626009071726439, 0.564182260663041, 0.505729760656817, 0.4508571487607, 0.399631755771351, 0.352205599149441, 0.308616729886953, 0.268845910284412, 0.232846552257934, 0.200500396124859, 0.171668935436032, 0.14616876650151, 0.123777964669862, 0.104271932784701, 0.0873953361691322, 0.0728993383073156, 0.0605314998222294, 0.0500473187931404, 0.0412101936860585, 0.0338093610413853, 0.0276428366131796],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f>"            50: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 50%])&amp;"],"</f>
+        <v xml:space="preserve">            50: [0.579012689069587, 0.639651949936537, 0.703942051883396, 0.771809061768379, 0.843165692084018, 0.91791789532723, 0.995973108105699, 1.07725102566185, 1.16169759171531, 1.24930349112509, 1.34012869392088, 1.43433426567824, 1.5322233208475, 1.63429293696595, 1.7412987174877, 1.85433516926487, 1.97492867141429, 2.10514629419028, 2.24770537422375, 2.40605596615965, 2.58436902428841, 2.78726037881454, 3.01891043583548, 3.28088536786128, 3.56777954161408, 3.85980878458926, 4.11561343547849, 4.27574155877754, 4.2894709242925, 4.15156342396823, 3.90824582674449, 3.62186955963973, 3.33953211912966, 3.08547430584255, 2.86751896312182, 2.68506397891321, 2.53417609106909, 2.41013887565468, 2.30852018041471, 2.22549544767274, 2.15800480854371, 2.10367423597745, 2.06061558467636, 2.02739165983987, 2.00302497606331, 1.98696082119283, 1.9790953713851, 1.97969097205997, 1.98979295695549, 2.01141358975674, 2.04771718314935, 2.10399303108977, 2.18747786989661, 2.30726657828697, 2.46888036241745, 2.66008471494804, 2.82750020486649, 2.88816174509927, 2.80973678747902, 2.64485393456846, 2.46153803443223, 2.29340316734009, 2.14774476768006, 2.02152116381499, 1.90942730357975, 1.80698466659881, 1.71091660322527, 1.6188716200123, 1.52932431091052, 1.44151251277289, 1.35499024148331, 1.26952686110228, 1.18515704877843, 1.10215140188421, 1.02076166955233, 0.941271517890452, 0.864012636543618, 0.789313511264742, 0.717543443366632, 0.648945833155321, 0.583813183828432, 0.522377447327429, 0.464842174409169, 0.411263846980388, 0.361782794831598, 0.316419225782971, 0.275132785440866, 0.237854122594214, 0.204440367451321, 0.174728510988843, 0.148510861457395, 0.125542162430917, 0.105576395248753, 0.0883385208930493, 0.0735623353168256, 0.0609802000077696, 0.0503346052027143, 0.0413779742091575, 0.0338904835542512, 0.0276626897638561],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f>"            55: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 55%])&amp;"],"</f>
+        <v xml:space="preserve">            55: [0.533701332317628, 0.586849895246133, 0.643042498501635, 0.702235308680925, 0.764376685123584, 0.829412105818634, 0.897290667840003, 0.96797399935175, 1.04144822129706, 1.11774011947537, 1.19693890499093, 1.27922465098972, 1.36490509082998, 1.45446243408941, 1.54861178570272, 1.64837411113002, 1.75516110204474, 1.87087513410146, 1.99801131838517, 2.13973734213954, 2.29989175574596, 2.48274924977328, 2.69224773315821, 2.93005053700011, 3.19163806121881, 3.45961048964092, 3.69706293367837, 3.8504262538555, 3.87335680279848, 3.76000437379224, 3.55101017571758, 3.30209812962805, 3.0557390520396, 2.83402951264881, 2.64429911829963, 2.4862385805043, 2.35647913963535, 2.25089986617702, 2.16560386210694, 2.09722002751697, 2.0430570987858, 2.00103888344182, 1.96952297077323, 1.9472734449278, 1.9334754974025, 1.92770662519299, 1.92997084392971, 1.9406237730004, 1.96078989933075, 1.99256245145828, 2.03921028625508, 2.10617819674242, 2.20095684005499, 2.33303002743318, 2.50838150727353, 2.71490809996828, 2.89803437269725, 2.97180816045196, 2.90138544823499, 2.73976158804896, 2.55689080220134, 2.38781338010966, 2.2404604297581, 2.11199074993592, 1.99713688896166, 1.89143768471777, 1.79164960663624, 1.69547054305082, 1.60144351797806, 1.50889429088596, 1.41746419205804, 1.32700498734402, 1.23763144959084, 1.14969074821082, 1.06349705410469, 0.979385958296692, 0.897732517587553, 0.818899146152419, 0.74328241202707, 0.671141210000965, 0.602779204908458, 0.538431909164179, 0.478300674421155, 0.422431376219686, 0.370952826452346, 0.323867594492862, 0.281114337671491, 0.24260096952505, 0.208160026991099, 0.177603994774895, 0.150700940070948, 0.127182395057961, 0.10678109217456, 0.0892025444257011, 0.0741634767723166, 0.0613813865947926, 0.0505861054561927, 0.0415194312935229, 0.0339528081413798, 0.0276696427138227],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f>"            60: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 60%])&amp;"],"</f>
+        <v xml:space="preserve">            60: [0.487140915719374, 0.533640556766522, 0.582745321869791, 0.634435908951559, 0.688687756396206, 0.745475096999337, 0.804776538916272, 0.866582925485902, 0.930908043832026, 0.997803213324934, 1.0673769869231, 1.13982094717625, 1.21544313230787, 1.29471063311676, 1.37830287398767, 1.46717836007053, 1.56265277581571, 1.66649159109886, 1.78100602254263, 1.90913111779709, 2.05443328267241, 2.22091143376169, 2.41231589599415, 2.63041476546569, 2.87146293659383, 3.12009553432111, 3.34316598408433, 3.4920171412694, 3.52388897501324, 3.43228900485325, 3.25307403255981, 3.03638051799808, 2.82082584262826, 2.62675730146848, 2.46114001997608, 2.32395196047531, 2.2123313661102, 2.12268368984231, 2.05158278292656, 1.99605550261317, 1.95373401376487, 1.92280314528413, 1.90183452226067, 1.88976586614363, 1.88592104599947, 1.88998867801982, 1.90206265139434, 1.92257620969342, 1.95272431269793, 1.99468145890742, 2.05183213041425, 2.12980778145478, 2.23640049104117, 2.3815430331086, 2.57169801416743, 2.79473511281189, 2.99436071964056, 3.08091997102646, 3.01689130091438, 2.85622422619324, 2.67144609361442, 2.49931360116578, 2.34844390761274, 2.21616124473792, 2.09718593347347, 1.98703278807403, 1.88245970712438, 1.78118903725301, 1.68181281114122, 1.58373008385062, 1.48665728473655, 1.39051861557015, 1.29550174781677, 1.20202592383884, 1.11046475568139, 1.02120443068678, 0.93466347474261, 0.851239173057469, 0.771356874566218, 0.695292086227494, 0.623360620106441, 0.555801775501795, 0.492814128169745, 0.434431275552397, 0.38076834479582, 0.331807272139353, 0.287462258038809, 0.247614794834012, 0.212069063189374, 0.180609440709237, 0.152976412496823, 0.128875315063817, 0.1080150637312, 0.0900795599265435, 0.07476669084254, 0.0617776756280173, 0.0508285803745435, 0.0416497294892427, 0.034003194060495, 0.0276647596791464],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <f>"            65: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 65%])&amp;"],"</f>
+        <v xml:space="preserve">            65: [0.446303473235804, 0.487671100111226, 0.531352600506641, 0.57734432613528, 0.625638819705113, 0.676228500101452, 0.729110799545544, 0.784295433073381, 0.841814314161356, 0.901735054469279, 0.964179170844144, 1.02934591120467, 1.09754312996607, 1.16922667169284, 1.24504973886211, 1.3259249108067, 1.41309713105241, 1.5082308035033, 1.61350128023182, 1.7316718693311, 1.8661087279861, 2.02060964788807, 2.19879281107515, 2.40251734528592, 2.62863545418685, 2.86332583843276, 3.07626859238969, 3.22247156492979, 3.2618061471022, 3.18722421751571, 3.03094414131865, 2.83890612924137, 2.64686367150254, 2.4738888503754, 2.32670805590671, 2.20554332213694, 2.10793586822202, 2.03070380625554, 1.97078801308915, 1.92552439346425, 1.89279543896991, 1.87098694269042, 1.85883356174367, 1.85540332666248, 1.8601224078375, 1.87275998750386, 1.89347480377211, 1.92275683375204, 1.96185795278365, 2.013027513722, 2.07976531934161, 2.16789878442374, 2.28553286264081, 2.44305660828444, 2.64738249275006, 2.88623853252125, 3.10138120742677, 3.19926143135696, 3.13980848764058, 2.97828157408604, 2.79002404441332, 2.61356273740358, 2.45816931534054, 2.32128629509028, 2.19758060199956, 2.08251020602779, 1.97280762218129, 1.86619696572699, 1.76129966952229, 1.65757101218563, 1.55478803997033, 1.45293555934338, 1.3522648252844, 1.25326014555446, 1.15634978925945, 1.06196753931767, 0.970573689927026, 0.882599576333382, 0.798498893870112, 0.718563558941894, 0.643121075251885, 0.572413799323591, 0.506636430967321, 0.44580903252094, 0.390031389687088, 0.339263186310447, 0.293392640022366, 0.252273465676843, 0.215680460062848, 0.18336916593441, 0.155052108279252, 0.130408367908177, 0.109123210769536, 0.0908593072983179, 0.0752961987584067, 0.0621193931762537, 0.0510317795553833, 0.0417527866430215, 0.0340356455380119, 0.0276490088112144],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f>"            70: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 70%])&amp;"],"</f>
+        <v xml:space="preserve">            70: [0.411572183226005, 0.448993895900498, 0.48852500398954, 0.530171908916537, 0.573938394690586, 0.619829133704765, 0.667854563598545, 0.718037758237435, 0.770423767990218, 0.825092294227353, 0.882174741223441, 0.941876506475497, 1.00450586147612, 1.07051082422011, 1.14052547683767, 1.21542831439402, 1.2964112894618, 1.38506269019725, 1.48345525991548, 1.59422251135055, 1.72057947317628, 1.86617291446073, 2.03452382253314, 2.22756587579341, 2.44261304909634, 2.66702627539404, 2.87263949148962, 3.01723931412171, 3.06267257352838, 3.0014357149827, 2.86296049043247, 2.68999876224577, 2.51614417868845, 2.35952144904449, 2.22669580116851, 2.11809144578952, 2.03156890283757, 1.96426979532306, 1.91342113915414, 1.87659847212944, 1.85187725770502, 1.83779696333339, 1.83321525855314, 1.83729680142835, 1.84954225980351, 1.86977867820614, 1.89821179079579, 1.9353742251122, 1.98256642863333, 2.04210942040388, 2.1176189783966, 2.21512437814916, 2.34304863039545, 2.51223667636046, 2.73002600143803, 2.98393163863932, 3.21364351537986, 3.32166313547164, 3.26550186598549, 3.10193853102541, 2.90923936538806, 2.72770160711347, 2.56721561708394, 2.42530615789228, 2.29655829771529, 2.1763509570736, 2.06137321478994, 1.94933589004533, 1.83887701013368, 1.72949709053106, 1.62102489077317, 1.5134989568702, 1.40722898489368, 1.30276063419368, 1.2005745568759, 1.10115083280742, 1.00499077061648, 0.91255925850951, 0.824337712972703, 0.740633786458913, 0.661785518950896, 0.588036857285774, 0.519576845674953, 0.456410261471444, 0.398619538696924, 0.346140378080199, 0.298833580318288, 0.256523981508429, 0.218956354159638, 0.185857137496397, 0.156911011845147, 0.131771231166281, 0.110100033598025, 0.091539644419638, 0.0757520967855062, 0.0624080412513683, 0.0511980083183155, 0.0418312887609069, 0.0340529443913034, 0.0276250850640557],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f>"            75: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 75%])&amp;"],"</f>
+        <v xml:space="preserve">            75: [0.381427526291829, 0.415683330254719, 0.45189246133828, 0.490068450723568, 0.530223329699493, 0.572371020898862, 0.616532023425718, 0.662739968276005, 0.711050487822066, 0.761553206746344, 0.81438783300325, 0.869765170004706, 0.927994340066684, 0.989517579711162, 1.05495404375831, 1.12515515050294, 1.20127042052138, 1.28482696098754, 1.37781492392833, 1.48276337852907, 1.60276597003193, 1.74134867981468, 1.9019558641297, 2.08658386107801, 2.29292177099681, 2.50928495357247, 2.70924009649698, 2.85280233389418, 2.90339423425257, 2.85313427525535, 2.72921262513445, 2.57182804810578, 2.41285313685179, 2.2696656173436, 2.14871273650646, 2.05058968210241, 1.97341951210424, 1.91460769175871, 1.87161330280212, 1.84220497951355, 1.82461255928591, 1.81749732398066, 1.81981307884822, 1.83079871440013, 1.85001131084782, 1.87732158871461, 1.912971928743, 1.95753037370461, 2.01234340408306, 2.07980564917642, 2.16365459396604, 2.2701326553846, 2.40799381894152, 2.58855031386379, 2.81955712009528, 3.08826097071062, 3.33215701802747, 3.4496728843559, 3.39594447982425, 3.22945301380076, 3.03152535851214, 2.84426513617119, 2.67816693529873, 2.53081202174442, 2.39668027899252, 2.27105334745955, 2.15056293105891, 2.03289591951252, 1.91669901710611, 1.8015123241045, 1.68721252528648, 1.57388973217336, 1.46191121572405, 1.35188404381971, 1.24434191002013, 1.13981209777143, 1.03883773548008, 0.941917704990351, 0.849560975548837, 0.762090178787973, 0.679852396543558, 0.603091097123148, 0.531987146518969, 0.466527390967569, 0.406774087853265, 0.352636373348685, 0.303945383319425, 0.260495226438857, 0.221999304166943, 0.188154044920615, 0.158615808976078, 0.133011908469833, 0.110981688716223, 0.0921472707096274, 0.0761536246353001, 0.0626570496696647, 0.0513362342907871, 0.0418908291946647, 0.0340581791821519, 0.0275942577350455],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f>"            80: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 80%])&amp;"],"</f>
+        <v xml:space="preserve">            80: [0.364674038110123, 0.397259339441245, 0.431717487081809, 0.468065569158513, 0.506319831526337, 0.546499011572859, 0.588628920061384, 0.632748822715141, 0.678920050508872, 0.727237613002712, 0.777845759555182, 0.83095829093899, 0.88688487768698, 0.946064726352892, 1.00910902838974, 1.07685469415001, 1.15042848971989, 1.23132473795341, 1.32148941319818, 1.42339586570105, 1.54007321908122, 1.6749836301386, 1.8315316934275, 2.01174881204545, 2.21352608470311, 2.42568923972672, 2.62272830641112, 2.76584279344087, 2.81928964395313, 2.77498279976884, 2.65892073989303, 2.50994882906192, 2.35903018736902, 2.22315037233821, 2.10869752384951, 2.01636006440201, 1.94440194234002, 1.89036941311747, 1.8518448137129, 1.82669874496671, 1.81324205913389, 1.81019951060419, 1.8165744546511, 1.83164359492632, 1.85499259176003, 1.8865145246695, 1.92647144013953, 1.97545163942038, 2.03483049543729, 2.10705063198794, 2.195929120622, 2.30784738294624, 2.45177266845029, 2.63931498476936, 2.87848785929769, 3.15634722044668, 3.40896091147486, 3.53215413810304, 3.47959266067194, 3.31089853714206, 3.10937120378783, 2.91825950362906, 2.74842982458157, 2.59748779096232, 2.45983758463811, 2.33069238798832, 2.20664238826942, 2.0853554321363, 1.96548085589347, 1.84658177222998, 1.72856392079914, 1.61154941982351, 1.49594180295285, 1.38238708569715, 1.27145280180158, 1.16369637804092, 1.05968751298455, 0.959946451596939, 0.864999093564475, 0.775176784625451, 0.690831209925959, 0.61220420882197, 0.539470011131995, 0.472602723280717, 0.411650428908673, 0.356504283673075, 0.306975727992066, 0.262838754948444, 0.223786530269706, 0.189496334380056, 0.159606658729017, 0.133728611051921, 0.111487355718133, 0.0924926679858258, 0.0763791145070771, 0.0627943056955707, 0.0514098059185712, 0.0419195014061905, 0.0340561463721078, 0.0275720845135469],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f>"            85: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 85%])&amp;"],"</f>
+        <v xml:space="preserve">            85: [0.352832281970267, 0.384270770655776, 0.417527364180417, 0.45262154757718, 0.489572440683205, 0.528402090847316, 0.569139979933065, 0.61182928212517, 0.656535287674031, 0.703356748176685, 0.752441062223466, 0.804004092066568, 0.858355847054592, 0.915933362078606, 0.977342204804614, 1.04340909931025, 1.11524489981311, 1.19432108371119, 1.28255294695207, 1.38237528967231, 1.49677279599114, 1.62916397222163, 1.78292684501213, 1.96011856494628, 2.15877202979803, 2.36806839140919, 2.56313829415649, 2.70600072345284, 2.76148773400967, 2.72136891623617, 2.61081725683305, 2.46774302847706, 2.32248246762356, 2.19175198163776, 2.08190032367677, 1.99368128012725, 1.92545662648371, 1.87487000255409, 1.83958872353449, 1.81755340754383, 1.80713032373467, 1.80708747279683, 1.81646176680004, 1.8345553791115, 1.86097325473901, 1.89562379854451, 1.93878309822152, 1.99105455854966, 2.05383615164068, 2.1296085356053, 2.22225164645312, 2.33825623943408, 2.48675597146945, 2.67959160336926, 2.92497363054486, 3.20980136022524, 3.46902424745017, 3.59644872377503, 3.5446208841887, 3.37407103650025, 3.16963613617569, 2.9754492976119, 2.80265888874745, 2.64888415366063, 2.5084667703765, 2.37656407066738, 2.24973199163244, 2.12562210767741, 2.00288471277326, 1.88109999156958, 1.76019576822834, 1.64031880558933, 1.52190074010033, 1.40561783148691, 1.29206395001956, 1.18181994545095, 1.07547604437447, 0.9735688296814, 0.876636905700164, 0.785017836134427, 0.699066168843266, 0.6190217014731, 0.545052709269513, 0.47712269452341, 0.415268049481096, 0.359365446206516, 0.309210664399741, 0.264561855535283, 0.22509640590691, 0.190476774989346, 0.160327726157526, 0.134248000994492, 0.111852002110732, 0.0927401893652659, 0.0765393165619105, 0.062890499209967, 0.0514599985654152, 0.041937426827127, 0.0340521461438894, 0.0275538279959041],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f>"            90: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 90%])&amp;"],"</f>
+        <v xml:space="preserve">            90: [0.34560542590283, 0.376356764755915, 0.40889355750143, 0.443236714792203, 0.479407076465917, 0.51742867771538, 0.557333209862663, 0.599166200749163, 0.642995323793626, 0.68892157670349, 0.737094238197073, 0.787730382492088, 0.841140176889244, 0.897759284631455, 0.958189805816635, 1.02325223736963, 1.09404775657619, 1.17203400374559, 1.2591077613504, 1.3576806521674, 1.4707107597071, 1.6015906542043, 1.75368297869687, 1.92906135927338, 2.12584546799412, 2.33343220257782, 2.52733960244816, 2.67008083113492, 2.72683330616215, 2.68927750315083, 2.58208746072714, 2.44260977533682, 2.3008036247845, 2.173224121686, 2.06619698946351, 1.98051583731712, 1.91460159244725, 1.86615660105838, 1.83289927965764, 1.81281223015999, 1.8042948685687, 1.80614100813654, 1.81740752005665, 1.83741169392791, 1.865769968393, 1.90240002453877, 1.94758672048641, 2.00194316716736, 2.06688224941258, 2.14490983735926, 2.23994737488771, 2.35855754330374, 2.50998287231745, 2.70621439797765, 2.95558945441454, 3.24490166695617, 3.50836699443248, 3.63847630445092, 3.58705468716092, 3.41523394978854, 3.20885595978611, 3.01262829036595, 2.83788033561621, 2.68223799394238, 2.54000063496479, 2.40628806814454, 2.27763309420668, 2.15167610863047, 2.02706763881614, 1.90339873647246, 1.78061149669073, 1.65886873018408, 1.53862043078772, 1.42056262051592, 1.30530639198969, 1.19344788085162, 1.08559064260087, 0.982281778038652, 0.884067945720603, 0.791290481340264, 0.704305443044865, 0.623350914850978, 0.548590901655587, 0.4799816513137, 0.417551612285392, 0.361167772819159, 0.310615536336223, 0.265642629496365, 0.22591612642987, 0.191088851522119, 0.160776690153583, 0.134570424181281, 0.112077556304238, 0.0928925977137052, 0.0766373295253862, 0.0629487467700418, 0.0514897560848811, 0.0419472734848039, 0.0340485263864104, 0.0275415088852943],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f>"            95: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 95%])&amp;"],"</f>
+        <v xml:space="preserve">            95: [0.340223791945068, 0.370469337528924, 0.40247635939944, 0.43626681409042, 0.471862806734949, 0.509289837660648, 0.548581227402416, 0.589784238318647, 0.632968297439913, 0.678236050948266, 0.725738148871973, 0.775692535001279, 0.828409459143879, 0.884323528023054, 0.944034230339329, 1.00835741114797, 1.07838705219413, 1.15557054209546, 1.2417909895758, 1.33944295175699, 1.45146500147588, 1.58123080777281, 1.73209207607426, 1.90613524865596, 2.10154499604927, 2.30787868058318, 2.50094152143201, 2.6436121035244, 2.70132221289279, 2.66568490285058, 2.56100425780709, 2.42420996449907, 2.284982857572, 2.15975935307545, 2.0548485799483, 1.97107385408241, 1.90689995688446, 1.86007265655549, 1.82834809776685, 1.80973981741231, 1.80267161812268, 1.80595628294624, 1.81866532380446, 1.84012711142541, 1.86996654875011, 1.90810823383616, 1.95484371238947, 2.01079362922343, 2.07738261687467, 2.15713643165167, 2.25400914985605, 2.37461984412829, 2.52829608697598, 2.72714593926401, 2.97960477939224, 3.27238206069615, 3.53911991433657, 3.67128426109988, 3.6201428076658, 3.44730080412461, 3.23938449534123, 3.0415480819792, 2.86526060388622, 2.70815201838126, 2.56448794048076, 2.42935838779104, 2.29927773918657, 2.17187741107904, 2.04580794033076, 1.92066874082071, 1.79641299071347, 1.67321602183841, 1.55154217195087, 1.43210290049133, 1.31552275523883, 1.20240979233815, 1.09337791995826, 0.988982354658489, 0.889775897592214, 0.796102660316396, 0.708319675424993, 0.626663476379864, 0.551294524760547, 0.482163227616036, 0.419291668761781, 0.362539161051824, 0.311682934694002, 0.266462543504893, 0.22653701545589, 0.19155168426133, 0.161115557988316, 0.134813272407964, 0.112247016775187, 0.0930067339311902, 0.076710394810586, 0.0629918442020853, 0.0515114291331226, 0.0419540122762012, 0.0340451979278002, 0.02753170704325],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f>"            100: ["&amp;_xlfn.TEXTJOIN(", ", TRUE, Table1[Focus @ 100%])&amp;"]"</f>
+        <v xml:space="preserve">            100: [0.332621951113959, 0.362161190006462, 0.393428483073437, 0.426447242227988, 0.461241337995438, 0.497838316402944, 0.53627377203981, 0.576597386195104, 0.618881024608268, 0.663229615877335, 0.709795693127246, 0.758798367226778, 0.810547938747538, 0.865477457667055, 0.924182671611827, 0.987472827701822, 1.05643176336527, 1.13249247799603, 1.21751896129728, 1.3138820011247, 1.42449312483241, 1.55270002522018, 1.70183988902821, 1.87401831894448, 2.06751272592661, 2.27210734409459, 2.46401167899339, 2.60661703749331, 2.66571013982876, 2.63280635769659, 2.53168846120033, 2.39870066103267, 2.26313392026033, 2.14125908474644, 2.03936278809463, 1.95831052822162, 1.89662887118583, 1.85212458493871, 1.82260670648949, 1.80613204629214, 1.80115847346066, 1.80652524977533, 1.82132429270105, 1.84489942058479, 1.87688741130689, 1.9172227110985, 1.96620661760535, 2.02447095023849, 2.09345799170553, 2.17572337612244, 2.27527001538885, 2.39880111756034, 2.55577065146379, 2.75846005923417, 3.01544887083371, 3.31331898554272, 3.58485834972636, 3.72001355423676, 3.66923259601662, 3.49482974378692, 3.28459610907836, 3.08434651885382, 2.90575490524829, 2.74645554316459, 2.60066282390958, 2.4634217764736, 2.33121889664552, 2.2016719143313, 2.07343115402567, 1.94610830317321, 1.81967295134691, 1.69431904969991, 1.5705322881632, 1.44904708798719, 1.33050800692976, 1.21554078646091, 1.10477462128679, 0.998776619601025, 0.898108461183827, 0.80311809712673, 0.714163667868218, 0.631479054344345, 0.555219113866137, 0.48532529101088, 0.421809955666252, 0.364520837906022, 0.313222915419644, 0.26764355150333, 0.227429833396858, 0.192216021370221, 0.161600995671529, 0.135160372115382, 0.112488564353596, 0.0931688494126166, 0.0768136520436535, 0.0630522422242438, 0.0515412577096588, 0.0419625915076244, 0.0340395044854414, 0.027516882897709]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>